--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61078685-F664-49CE-AE7C-89383013624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADC059-B92E-4184-B979-3A94872A5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Stt</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>SỔ QUỸ CÔNG TY TNHH MTV VẬN TẢI VÀ DU LỊCH MINH HẢI</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 13</t>
+  </si>
+  <si>
+    <t>Chi thịt (460) + rau củ quả trứng đậu (231)</t>
+  </si>
+  <si>
+    <t>Chi tiền cho bác Kim công việc</t>
+  </si>
+  <si>
+    <t>Chi vụ Thiện thanh toán cho bác Kim</t>
   </si>
 </sst>
 </file>
@@ -216,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,7 +244,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,14 +267,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -535,8 +551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="22" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,30 +571,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="12" t="str">
         <f>"Từ ngày " &amp; TEXT(K5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(M5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="K5" s="15">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="10">
         <v>46023</v>
       </c>
       <c r="M5" t="s">
@@ -583,14 +602,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -603,54 +622,54 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -704,7 +723,7 @@
         <v>40000</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ref="G13:G29" si="0">G12 + IF(E13&lt;&gt;"", E13, 0) - IF(F13&lt;&gt;"", F13, 0)</f>
+        <f t="shared" ref="G13:G23" si="0">G12 + IF(E13&lt;&gt;"", E13, 0) - IF(F13&lt;&gt;"", F13, 0)</f>
         <v>4335000</v>
       </c>
       <c r="H13" s="3"/>
@@ -718,7 +737,7 @@
         <v>46357</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="7">
@@ -740,7 +759,7 @@
         <v>46357</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="7">
@@ -784,7 +803,7 @@
         <v>46357</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="7"/>
@@ -802,11 +821,11 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="7">
@@ -824,7 +843,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3"/>
@@ -846,12 +865,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3300000</v>
+      </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>15598000</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -859,12 +887,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="7">
+        <v>691000</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>14907000</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,12 +909,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>9907000</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -885,12 +931,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="7">
+        <v>1035000</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>8872000</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1270,11 +1325,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>22136000</v>
+        <v>25436000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>14363000</v>
+        <v>21089000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="3"/>
@@ -1290,12 +1345,11 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5">
         <f>G11+E53-F53</f>
-        <v>12298000</v>
+        <v>8872000</v>
       </c>
       <c r="H54" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADC059-B92E-4184-B979-3A94872A5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6317C8DE-99A3-4FFB-97C2-9F6ADA356F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Stt</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>Chi vụ Thiện thanh toán cho bác Kim</t>
+  </si>
+  <si>
+    <t>Bác Kim chi tiền công việc</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Bác Kim chi tiền công việc, buổi chiều 15h30 ngày 14-01-2026 bác yêu cầu chi 5 triệu công việc (có bác nhâm đi cùng xuống Dương Đông)</t>
+  </si>
+  <si>
+    <t>Bác Kim thiếu 1,368,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bác Kim nhận tiền của Thiện, buổi tối  ngày 14-01-2026 </t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 14</t>
   </si>
 </sst>
 </file>
@@ -131,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +209,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +283,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,10 +318,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -549,13 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="22" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,34 +614,35 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="str">
+      <c r="A5" s="20" t="str">
         <f>"Từ ngày " &amp; TEXT(K5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(M5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="K5" s="10">
         <v>46023</v>
       </c>
@@ -602,14 +651,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -622,54 +671,58 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="I9" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -684,6 +737,7 @@
         <v>4525000</v>
       </c>
       <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -705,6 +759,7 @@
         <v>4375000</v>
       </c>
       <c r="H12" s="3"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -723,10 +778,11 @@
         <v>40000</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ref="G13:G23" si="0">G12 + IF(E13&lt;&gt;"", E13, 0) - IF(F13&lt;&gt;"", F13, 0)</f>
+        <f t="shared" ref="G13:G24" si="0">G12 + IF(E13&lt;&gt;"", E13, 0) - IF(F13&lt;&gt;"", F13, 0)</f>
         <v>4335000</v>
       </c>
       <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -737,7 +793,7 @@
         <v>46357</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="7">
@@ -749,6 +805,7 @@
         <v>8511000</v>
       </c>
       <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -771,6 +828,7 @@
         <v>22511000</v>
       </c>
       <c r="H15" s="3"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -793,8 +851,9 @@
         <v>22376000</v>
       </c>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -815,8 +874,9 @@
         <v>8376000</v>
       </c>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -825,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="7">
@@ -837,8 +897,9 @@
         <v>12336000</v>
       </c>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -859,8 +920,9 @@
         <v>12298000</v>
       </c>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -869,7 +931,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="7">
@@ -881,8 +943,9 @@
         <v>15598000</v>
       </c>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -903,65 +966,86 @@
         <v>14907000</v>
       </c>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16">
         <v>5000000</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="16">
         <f t="shared" si="0"/>
         <v>9907000</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="H22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>1035000</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16">
+        <v>1368000</v>
+      </c>
+      <c r="G23" s="16">
         <f t="shared" si="0"/>
-        <v>8872000</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8539000</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3120000</v>
+      </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="16">
+        <f t="shared" si="0"/>
+        <v>11659000</v>
+      </c>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -973,8 +1057,9 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -986,8 +1071,9 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -999,8 +1085,9 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1012,8 +1099,9 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1025,8 +1113,9 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1038,8 +1127,9 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1051,8 +1141,9 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1064,8 +1155,9 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1077,8 +1169,9 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1090,8 +1183,9 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1103,8 +1197,9 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1116,8 +1211,9 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1129,8 +1225,9 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1142,8 +1239,9 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1155,8 +1253,9 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1168,8 +1267,9 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1181,8 +1281,9 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1194,8 +1295,9 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1207,8 +1309,9 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1220,8 +1323,9 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1233,8 +1337,9 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1246,8 +1351,9 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1259,8 +1365,9 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1272,8 +1379,9 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1285,8 +1393,9 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -1295,8 +1404,9 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -1305,8 +1415,9 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -1315,8 +1426,9 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1325,16 +1437,17 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>25436000</v>
+        <v>28556000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>21089000</v>
+        <v>21422000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1345,12 +1458,14 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5">
         <f>G11+E53-F53</f>
-        <v>8872000</v>
+        <v>11659000</v>
       </c>
       <c r="H54" s="3"/>
+      <c r="I54" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:H6"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6317C8DE-99A3-4FFB-97C2-9F6ADA356F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14156519-1D60-40E5-9788-6DEDB41DB9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu Chi" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -149,8 +140,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -263,7 +254,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -275,9 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -294,7 +285,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,24 +593,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -631,7 +622,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="str">
         <f>"Từ ngày " &amp; TEXT(K5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(M5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
@@ -650,7 +641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -660,7 +651,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -670,7 +661,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -680,7 +671,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
@@ -705,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -724,7 +715,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -739,7 +730,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -761,7 +752,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f>A12+1</f>
         <v>2</v>
@@ -784,7 +775,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" ref="A14:A49" si="1">A13+1</f>
         <v>3</v>
@@ -807,7 +798,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -830,7 +821,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -853,7 +844,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -876,7 +867,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -899,7 +890,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -922,7 +913,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -945,7 +936,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -968,7 +959,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -995,7 +986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1022,7 +1013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1045,7 +1036,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1055,11 +1046,14 @@
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="str">
+        <f>IF(AND(E25="",F25=""),"", G24 + IF(E25&lt;&gt;"",E25,0) - IF(F25&lt;&gt;"",F25,0))</f>
+        <v/>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1073,7 +1067,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1087,7 +1081,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1101,7 +1095,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1115,7 +1109,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1129,7 +1123,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1143,7 +1137,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1157,7 +1151,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1171,7 +1165,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1185,7 +1179,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1199,7 +1193,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1213,7 +1207,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1227,7 +1221,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1241,7 +1235,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1255,7 +1249,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1269,7 +1263,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1283,7 +1277,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1297,7 +1291,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1311,7 +1305,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1325,7 +1319,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1339,7 +1333,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1353,7 +1347,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1367,7 +1361,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1381,7 +1375,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1395,7 +1389,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -1406,7 +1400,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -1417,7 +1411,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -1428,7 +1422,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1447,7 +1441,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Quản lý thu chi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14156519-1D60-40E5-9788-6DEDB41DB9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79F186-EE00-4C58-9E14-80FBFF4F10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu Chi" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Stt</t>
   </si>
@@ -60,9 +69,6 @@
     <t>Cộng phát sinh trong kỳ</t>
   </si>
   <si>
-    <t>Dư cuối kỳ</t>
-  </si>
-  <si>
     <t>Tiền mặt thu ngày 10</t>
   </si>
   <si>
@@ -114,9 +120,6 @@
     <t>Chi vụ Thiện thanh toán cho bác Kim</t>
   </si>
   <si>
-    <t>Bác Kim chi tiền công việc</t>
-  </si>
-  <si>
     <t>Thời gian</t>
   </si>
   <si>
@@ -133,6 +136,28 @@
   </si>
   <si>
     <t>Thu tiền mặt ngày 14</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 15</t>
+  </si>
+  <si>
+    <t>Công nợ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tổng tiền dư hiện tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nợ </t>
+  </si>
+  <si>
+    <t>Bác Kim chi tiền 
+đi ăn với đối tác.</t>
   </si>
 </sst>
 </file>
@@ -140,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +232,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -228,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -251,12 +283,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,9 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -285,7 +343,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,6 +366,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,28 +662,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A4:M54"/>
+  <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="25" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -621,10 +695,11 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="str">
-        <f>"Từ ngày " &amp; TEXT(K5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(M5,"dd/mm/yyyy")</f>
+        <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
       <c r="B5" s="20"/>
@@ -634,14 +709,15 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="K5" s="10">
+      <c r="I5" s="20"/>
+      <c r="L5" s="10">
         <v>46023</v>
       </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -650,8 +726,9 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -660,8 +737,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -670,8 +748,9 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
@@ -689,14 +768,17 @@
       <c r="G9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J9" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -712,25 +794,27 @@
         <v>9</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
         <v>4525000</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -739,7 +823,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
@@ -749,10 +833,11 @@
         <f>G11 + IF(E12&lt;&gt;"", E12, 0) - IF(F12&lt;&gt;"", F12, 0)</f>
         <v>4375000</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>A12+1</f>
         <v>2</v>
@@ -762,20 +847,21 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
         <v>40000</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ref="G13:G24" si="0">G12 + IF(E13&lt;&gt;"", E13, 0) - IF(F13&lt;&gt;"", F13, 0)</f>
+        <f t="shared" ref="G13:G22" si="0">G12 + IF(E13&lt;&gt;"", E13, 0) - IF(F13&lt;&gt;"", F13, 0)</f>
         <v>4335000</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" ref="A14:A49" si="1">A13+1</f>
         <v>3</v>
@@ -785,7 +871,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7">
         <v>4176000</v>
@@ -795,10 +881,11 @@
         <f t="shared" si="0"/>
         <v>8511000</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -808,7 +895,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7">
         <v>14000000</v>
@@ -818,10 +905,11 @@
         <f t="shared" si="0"/>
         <v>22511000</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -831,7 +919,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
@@ -841,10 +929,11 @@
         <f t="shared" si="0"/>
         <v>22376000</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -854,7 +943,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
@@ -864,20 +953,21 @@
         <f t="shared" si="0"/>
         <v>8376000</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="7"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7">
         <v>3960000</v>
@@ -887,20 +977,21 @@
         <f t="shared" si="0"/>
         <v>12336000</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="7"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
@@ -910,20 +1001,21 @@
         <f t="shared" si="0"/>
         <v>12298000</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="7">
         <v>3300000</v>
@@ -933,20 +1025,21 @@
         <f t="shared" si="0"/>
         <v>15598000</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -956,20 +1049,21 @@
         <f t="shared" si="0"/>
         <v>14907000</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16">
@@ -979,81 +1073,94 @@
         <f t="shared" si="0"/>
         <v>9907000</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16">
+        <v>27</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="16">
         <v>1368000</v>
       </c>
-      <c r="G23" s="16">
-        <f t="shared" si="0"/>
-        <v>8539000</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="I23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="7">
         <v>3120000</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="16">
-        <f t="shared" si="0"/>
-        <v>11659000</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <f>G22 + IF(E24&lt;&gt;"", E24, 0) - IF(F24&lt;&gt;"", F24, 0)</f>
+        <v>13027000</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2460000</v>
+      </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="str">
+      <c r="G25" s="7">
         <f>IF(AND(E25="",F25=""),"", G24 + IF(E25&lt;&gt;"",E25,0) - IF(F25&lt;&gt;"",F25,0))</f>
-        <v/>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15487000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1064,10 +1171,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1078,10 +1186,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="7"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1092,10 +1201,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="7"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1106,10 +1216,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1120,10 +1231,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H30" s="7"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1134,10 +1246,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="7"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1148,10 +1261,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="7"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1162,10 +1276,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="7"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1176,10 +1291,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="7"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1190,10 +1306,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="7"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1204,10 +1321,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="7"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1218,10 +1336,11 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="7"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1232,10 +1351,11 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="7"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1246,10 +1366,11 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="7"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1260,10 +1381,11 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="7"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1274,10 +1396,11 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="7"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1288,10 +1411,11 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="7"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1302,10 +1426,11 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="7"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1316,10 +1441,11 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="7"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1330,10 +1456,11 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="7"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1344,10 +1471,11 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="7"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1358,10 +1486,11 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="7"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1372,10 +1501,11 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48" s="7"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1386,10 +1516,11 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H49" s="7"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -1397,10 +1528,11 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H50" s="7"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -1408,10 +1540,11 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="7"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -1419,10 +1552,11 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="7"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1431,44 +1565,64 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>28556000</v>
+        <v>31016000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>21422000</v>
+        <v>20054000</v>
       </c>
       <c r="G53" s="5"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="5"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5">
+      <c r="G54" s="5"/>
+      <c r="H54" s="27">
+        <f>SUM(H11:H51)</f>
+        <v>1368000</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>11659000</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="12"/>
+        <v>15487000</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
+  <mergeCells count="12">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79F186-EE00-4C58-9E14-80FBFF4F10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D30284B-4293-4E3E-A880-2DDC072EAABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Stt</t>
   </si>
@@ -158,6 +158,15 @@
   <si>
     <t>Bác Kim chi tiền 
 đi ăn với đối tác.</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 16</t>
+  </si>
+  <si>
+    <t>17/01/2026</t>
+  </si>
+  <si>
+    <t>Chi 10% tiền vượt KPI cho Thanh, Lập, Nhất</t>
   </si>
 </sst>
 </file>
@@ -349,36 +358,36 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,10 +674,7 @@
   <dimension ref="A4:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="25" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection activeCell="DF130" sqref="DF130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,31 +691,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="23" t="str">
         <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="L5" s="10">
         <v>46023</v>
       </c>
@@ -718,15 +724,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -740,63 +746,63 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1074,7 +1080,7 @@
         <v>9907000</v>
       </c>
       <c r="H22" s="16"/>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="13" t="s">
@@ -1093,13 +1099,13 @@
       <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="16">
@@ -1165,12 +1171,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3510000</v>
+      </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <f>IF(AND(E26="",F26=""),"", G25 + IF(E26&lt;&gt;"",E26,0) - IF(F26&lt;&gt;"",F26,0))</f>
+        <v>18997000</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="3"/>
       <c r="J26" s="12"/>
@@ -1180,12 +1195,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="7">
+        <v>974000</v>
+      </c>
+      <c r="G27" s="7">
+        <f>IF(AND(E27="",F27=""),"", G26 + IF(E27&lt;&gt;"",E27,0) - IF(F27&lt;&gt;"",F27,0))</f>
+        <v>18023000</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="3"/>
       <c r="J27" s="12"/>
@@ -1565,11 +1589,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>31016000</v>
+        <v>34526000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>20054000</v>
+        <v>21028000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1586,7 +1610,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="27">
+      <c r="H54" s="19">
         <f>SUM(H11:H51)</f>
         <v>1368000</v>
       </c>
@@ -1604,7 +1628,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>15487000</v>
+        <v>18023000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D30284B-4293-4E3E-A880-2DDC072EAABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C73F2F-0EFF-4D7A-95A9-9B524499CB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Stt</t>
   </si>
@@ -167,6 +167,27 @@
   </si>
   <si>
     <t>Chi 10% tiền vượt KPI cho Thanh, Lập, Nhất</t>
+  </si>
+  <si>
+    <t>Chi tiền nhà cho bác Kim + phí 50k giao dịch</t>
+  </si>
+  <si>
+    <t>18/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 17</t>
+  </si>
+  <si>
+    <t>Chi tiền đi chợ 200 + xăng 40</t>
+  </si>
+  <si>
+    <t>Chi 10% tiền vượt KPI cho Vũ Linh</t>
+  </si>
+  <si>
+    <t>Bác Kim thiếu 12.050.000</t>
+  </si>
+  <si>
+    <t>Bác Kim chi tiền đóng tiền nhà, buổi chiều 15h30 ngày 17-01-2026 bác yêu cầu chi 12 triệu đóng tiền nhà (nhà bị cúp điện lúc 13h44)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +270,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +416,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -673,8 +702,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DF130" sqref="DF130"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,36 +1239,58 @@
         <f>IF(AND(E27="",F27=""),"", G26 + IF(E27&lt;&gt;"",E27,0) - IF(F27&lt;&gt;"",F27,0))</f>
         <v>18023000</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="3"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="F28" s="30">
+        <v>12050000</v>
+      </c>
+      <c r="G28" s="7">
+        <f>IF(AND(E28="",F28=""),"", G27 + IF(E28&lt;&gt;"",E28,0) - IF(F28&lt;&gt;"",F28,0))</f>
+        <v>5973000</v>
+      </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3330000</v>
+      </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <f t="shared" ref="G29:G31" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <v>9303000</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="12"/>
@@ -1249,12 +1300,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="7">
+        <v>240000</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="2"/>
+        <v>9063000</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="3"/>
       <c r="J30" s="12"/>
@@ -1264,12 +1324,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="7">
+        <v>390000</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="2"/>
+        <v>8673000</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="3"/>
       <c r="J31" s="12"/>
@@ -1589,11 +1658,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>34526000</v>
+        <v>37856000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>21028000</v>
+        <v>33708000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1628,7 +1697,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>18023000</v>
+        <v>8673000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C73F2F-0EFF-4D7A-95A9-9B524499CB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802C9257-42BB-4A4E-B0F8-C81D26F04FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Stt</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>Bác Kim chi tiền đóng tiền nhà, buổi chiều 15h30 ngày 17-01-2026 bác yêu cầu chi 12 triệu đóng tiền nhà (nhà bị cúp điện lúc 13h44)</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 18</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>Chi thanh toán tiền mặt cô Thanh T1 từ ngày 10 tới 18 + phí 30k</t>
+  </si>
+  <si>
+    <t>Bà gửi 14tr tiền tháng 12</t>
+  </si>
+  <si>
+    <t>Hôm nay lúc 10h20 sáng ngày 20 tháng 1 năm 2026 chi thanh toán tiền mặt từ ngày 10 tới 18 cho cô Thanh (đã chuyển)</t>
   </si>
 </sst>
 </file>
@@ -350,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +410,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,8 +436,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -702,8 +726,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,31 +744,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="str">
+      <c r="A5" s="25" t="str">
         <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="L5" s="10">
         <v>46023</v>
       </c>
@@ -753,15 +777,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -775,63 +799,63 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -941,7 +965,9 @@
         <v>22511000</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1239,7 +1265,7 @@
         <f>IF(AND(E27="",F27=""),"", G26 + IF(E27&lt;&gt;"",E27,0) - IF(F27&lt;&gt;"",F27,0))</f>
         <v>18023000</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="3"/>
       <c r="J27" s="12"/>
     </row>
@@ -1256,7 +1282,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="30">
+      <c r="F28" s="22">
         <v>12050000</v>
       </c>
       <c r="G28" s="7">
@@ -1284,12 +1310,12 @@
         <v>46</v>
       </c>
       <c r="E29" s="7">
-        <v>3330000</v>
+        <v>3150000</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G31" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
-        <v>9303000</v>
+        <f t="shared" ref="G29:G33" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
@@ -1313,7 +1339,7 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>9063000</v>
+        <v>8883000</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="3"/>
@@ -1337,7 +1363,7 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>8673000</v>
+        <v>8493000</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="3"/>
@@ -1348,30 +1374,49 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3240000</v>
+      </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>11733000</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="3"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="7">
+        <v>11733000</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="12"/>
+      <c r="J33" s="31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -1658,11 +1703,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>37856000</v>
+        <v>40916000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>33708000</v>
+        <v>45441000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1697,7 +1742,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>8673000</v>
+        <v>0</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802C9257-42BB-4A4E-B0F8-C81D26F04FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCAC21-57A2-4905-B158-3E6DA522EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Stt</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Hôm nay lúc 10h20 sáng ngày 20 tháng 1 năm 2026 chi thanh toán tiền mặt từ ngày 10 tới 18 cho cô Thanh (đã chuyển)</t>
+  </si>
+  <si>
+    <t>Chi tiền đi chợ trứng 40 + gia vị 10 muối</t>
   </si>
 </sst>
 </file>
@@ -412,6 +415,12 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,12 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,8 +729,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,31 +747,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="str">
+      <c r="A5" s="27" t="str">
         <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="L5" s="10">
         <v>46023</v>
       </c>
@@ -777,15 +780,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -799,63 +802,63 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G33" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G34" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
@@ -1398,11 +1401,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="7"/>
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1423,12 +1426,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="2"/>
+        <v>-50000</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="3"/>
       <c r="J34" s="12"/>
@@ -1707,7 +1719,7 @@
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>45441000</v>
+        <v>45491000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1742,7 +1754,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCAC21-57A2-4905-B158-3E6DA522EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31617DCE-5711-4101-B153-BDCB8110F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu Chi" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Stt</t>
   </si>
@@ -209,6 +200,12 @@
   </si>
   <si>
     <t>Chi tiền đi chợ trứng 40 + gia vị 10 muối</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 19</t>
+  </si>
+  <si>
+    <t>âm 50k</t>
   </si>
 </sst>
 </file>
@@ -216,8 +213,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -291,7 +288,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,9 +372,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,9 +384,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -400,21 +403,21 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -445,6 +448,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -729,24 +734,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>22</v>
       </c>
@@ -759,7 +764,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="str">
         <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
@@ -779,7 +784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -790,7 +795,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -801,7 +806,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -812,7 +817,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
@@ -840,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -860,7 +865,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -876,7 +881,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -899,7 +904,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f>A12+1</f>
         <v>2</v>
@@ -923,7 +928,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" ref="A14:A49" si="1">A13+1</f>
         <v>3</v>
@@ -947,7 +952,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -973,7 +978,7 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -997,7 +1002,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1021,7 +1026,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1045,7 +1050,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1069,7 +1074,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1093,7 +1098,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1117,7 +1122,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1145,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1176,7 +1181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1200,7 +1205,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1224,7 +1229,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1248,7 +1253,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1272,7 +1277,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1300,7 +1305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1317,14 +1322,14 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G34" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G35" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1348,7 +1353,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1372,7 +1377,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1396,7 +1401,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1409,7 +1414,7 @@
         <v>54</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7">
+      <c r="F33" s="21">
         <v>11733000</v>
       </c>
       <c r="G33" s="7">
@@ -1421,7 +1426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1437,30 +1442,41 @@
       <c r="F34" s="7">
         <v>50000</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="34">
         <f t="shared" si="2"/>
         <v>-50000</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2860000</v>
+      </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <f t="shared" si="2"/>
+        <v>2810000</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="3"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1475,7 +1491,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1490,7 +1506,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1505,7 +1521,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1520,7 +1536,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1535,7 +1551,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1550,7 +1566,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1565,7 +1581,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1580,7 +1596,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1595,7 +1611,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1610,7 +1626,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1625,7 +1641,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1640,7 +1656,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1655,7 +1671,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1670,7 +1686,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -1682,7 +1698,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -1694,7 +1710,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -1706,7 +1722,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1715,7 +1731,7 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>40916000</v>
+        <v>43776000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
@@ -1726,7 +1742,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1743,7 +1759,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1754,7 +1770,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>-50000</v>
+        <v>2810000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Quản lý thu chi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31617DCE-5711-4101-B153-BDCB8110F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD946740-FD31-4AED-9756-4D662AC153BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu Chi" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Stt</t>
   </si>
@@ -206,6 +215,30 @@
   </si>
   <si>
     <t>âm 50k</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 21</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 20</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>Linh không đi làm nên thọt</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 22</t>
+  </si>
+  <si>
+    <t>Chi trứng thịt 380</t>
   </si>
 </sst>
 </file>
@@ -213,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +319,14 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -372,9 +413,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,9 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -403,27 +444,29 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,8 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -734,49 +776,49 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" customWidth="1"/>
-    <col min="10" max="10" width="34.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="str">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="str">
         <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="L5" s="10">
         <v>46023</v>
       </c>
@@ -784,18 +826,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -806,66 +848,66 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G10" s="27"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -881,7 +923,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -904,7 +946,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>A12+1</f>
         <v>2</v>
@@ -928,7 +970,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" ref="A14:A49" si="1">A13+1</f>
         <v>3</v>
@@ -952,7 +994,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -978,7 +1020,7 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1002,7 +1044,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1026,7 +1068,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1050,7 +1092,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1074,7 +1116,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1098,7 +1140,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1122,7 +1164,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1150,7 +1192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1181,7 +1223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1205,7 +1247,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1229,7 +1271,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1253,7 +1295,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1277,7 +1319,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1305,7 +1347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1322,14 +1364,14 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G35" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G39" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1353,7 +1395,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1377,7 +1419,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1401,7 +1443,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1426,7 +1468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1442,17 +1484,17 @@
       <c r="F34" s="7">
         <v>50000</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="26">
         <f t="shared" si="2"/>
         <v>-50000</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1476,67 +1518,105 @@
       <c r="I35" s="3"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2770000</v>
+      </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <f t="shared" si="2"/>
+        <v>5580000</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="3"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1620000</v>
+      </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <f t="shared" si="2"/>
+        <v>7200000</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="7">
+        <v>380000</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="2"/>
+        <v>6820000</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="3"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2500000</v>
+      </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <f t="shared" si="2"/>
+        <v>9320000</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="3"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1551,7 +1631,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1566,7 +1646,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1581,7 +1661,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1596,7 +1676,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1611,7 +1691,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1626,7 +1706,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1641,7 +1721,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1656,7 +1736,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1671,7 +1751,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1686,7 +1766,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -1698,7 +1778,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -1710,7 +1790,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -1722,7 +1802,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1731,18 +1811,18 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>43776000</v>
+        <v>50666000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>45491000</v>
+        <v>45871000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="3"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1759,7 +1839,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1770,7 +1850,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>2810000</v>
+        <v>9320000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD946740-FD31-4AED-9756-4D662AC153BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D86C0-91AC-469B-810F-C452C06F0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Stt</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Chi trứng thịt 380</t>
+  </si>
+  <si>
+    <t>24/01/2026</t>
+  </si>
+  <si>
+    <t>Chi đồ đèn cúng, rau, thực phẩm khô, trái cây, quẹt lửa, giấy ăn</t>
   </si>
 </sst>
 </file>
@@ -350,13 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,15 +464,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,7 +497,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -776,8 +789,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,11 +1066,11 @@
         <v>46357</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
+      <c r="E17" s="36"/>
+      <c r="F17" s="25">
         <v>14000000</v>
       </c>
       <c r="G17" s="7">
@@ -1328,11 +1341,11 @@
         <v>42</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="22">
+      <c r="E28" s="39"/>
+      <c r="F28" s="40">
         <v>12050000</v>
       </c>
       <c r="G28" s="7">
@@ -1364,7 +1377,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G39" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G40" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
@@ -1448,15 +1461,15 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="21">
+      <c r="E33" s="36"/>
+      <c r="F33" s="25">
         <v>11733000</v>
       </c>
       <c r="G33" s="7">
@@ -1464,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1484,13 +1497,13 @@
       <c r="F34" s="7">
         <v>50000</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <f t="shared" si="2"/>
         <v>-50000</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1564,7 +1577,7 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="35" t="s">
+      <c r="J37" s="26" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1616,17 +1629,26 @@
       <c r="I39" s="3"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="7">
+        <v>370000</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="2"/>
+        <v>8950000</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="3"/>
       <c r="J40" s="12"/>
@@ -1815,7 +1837,7 @@
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>45871000</v>
+        <v>46241000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1850,7 +1872,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>9320000</v>
+        <v>8950000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D86C0-91AC-469B-810F-C452C06F0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CA6D3-A93E-4C8F-A08B-4D19B8D7223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>Stt</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>Chi đồ đèn cúng, rau, thực phẩm khô, trái cây, quẹt lửa, giấy ăn</t>
+  </si>
+  <si>
+    <t>25/01/2026</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 23</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 24</t>
+  </si>
+  <si>
+    <t>Chi sửa khóa + đánh khóa mới + xăng 50k</t>
+  </si>
+  <si>
+    <t>Bác nhâm làm hư khóa</t>
   </si>
 </sst>
 </file>
@@ -473,30 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,6 +496,30 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -789,8 +804,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,31 +822,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="str">
+      <c r="A5" s="35" t="str">
         <f>"Từ ngày " &amp; TEXT(L5,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(N5,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2026 đến ngày 31/01/2026</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="L5" s="10">
         <v>46023</v>
       </c>
@@ -840,15 +855,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -862,63 +877,63 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1066,10 +1081,10 @@
         <v>46357</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="25">
         <v>14000000</v>
       </c>
@@ -1341,11 +1356,11 @@
         <v>42</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40">
+      <c r="E28" s="31"/>
+      <c r="F28" s="32">
         <v>12050000</v>
       </c>
       <c r="G28" s="7">
@@ -1377,7 +1392,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G40" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G42" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
@@ -1465,10 +1480,10 @@
         <v>53</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="25">
         <v>11733000</v>
       </c>
@@ -1658,12 +1673,21 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2160000</v>
+      </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <f t="shared" si="2"/>
+        <v>11110000</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="3"/>
       <c r="J41" s="12"/>
@@ -1673,12 +1697,21 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3340000</v>
+      </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <f t="shared" si="2"/>
+        <v>14450000</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="3"/>
       <c r="J42" s="12"/>
@@ -1688,15 +1721,23 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>350000</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -1833,11 +1874,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>50666000</v>
+        <v>56166000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>46241000</v>
+        <v>46591000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1872,7 +1913,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>8950000</v>
+        <v>14100000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CA6D3-A93E-4C8F-A08B-4D19B8D7223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DB4EE-054D-4679-B4DD-CAD2905554BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Stt</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>Bác nhâm làm hư khóa</t>
+  </si>
+  <si>
+    <t>26/01/2026</t>
+  </si>
+  <si>
+    <t>Chi thanh toán tiền mặt cô Thanh T1 từ ngày 19 tới 24 + phí 50k</t>
+  </si>
+  <si>
+    <t>Chi ngày của Phật, bánh chocopie cacao 70k</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 25</t>
   </si>
 </sst>
 </file>
@@ -804,8 +816,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1404,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G42" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G46" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
@@ -1732,24 +1744,36 @@
       <c r="F43" s="7">
         <v>350000</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <f t="shared" si="2"/>
+        <v>14100000</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3"/>
       <c r="J43" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="7">
+        <v>14050000</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="3"/>
       <c r="J44" s="12"/>
@@ -1759,12 +1783,21 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="7">
+        <v>70000</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="2"/>
+        <v>-20000</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="3"/>
       <c r="J45" s="12"/>
@@ -1774,12 +1807,21 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3360000</v>
+      </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <f t="shared" si="2"/>
+        <v>3340000</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="3"/>
       <c r="J46" s="12"/>
@@ -1874,11 +1916,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>56166000</v>
+        <v>59526000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>46591000</v>
+        <v>60711000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1913,7 +1955,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>14100000</v>
+        <v>3340000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>

--- a/Quản lý thu chi/Thu chi tháng 1.xlsx
+++ b/Quản lý thu chi/Thu chi tháng 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DB4EE-054D-4679-B4DD-CAD2905554BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D56D7-CDE5-4046-9D4C-183AF542E4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>Stt</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>Thu tiền mặt ngày 25</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt ngày 26</t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi mì omachi, 2 trứng, bánh afc </t>
   </si>
 </sst>
 </file>
@@ -817,7 +826,7 @@
   <dimension ref="A4:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1413,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G46" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
+        <f t="shared" ref="G29:G48" si="2">IF(AND(E29="",F29=""),"", G28 + IF(E29&lt;&gt;"",E29,0) - IF(F29&lt;&gt;"",F29,0))</f>
         <v>9123000</v>
       </c>
       <c r="H29" s="7"/>
@@ -1831,12 +1840,21 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2660000</v>
+      </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <f t="shared" si="2"/>
+        <v>6000000</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="3"/>
       <c r="J47" s="12"/>
@@ -1846,12 +1864,21 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="7">
+        <v>360000</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="2"/>
+        <v>5640000</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="3"/>
       <c r="J48" s="12"/>
@@ -1916,11 +1943,11 @@
       </c>
       <c r="E53" s="5">
         <f>SUM(E12:E52)</f>
-        <v>59526000</v>
+        <v>62186000</v>
       </c>
       <c r="F53" s="5">
         <f>SUM(F12:F52)</f>
-        <v>60711000</v>
+        <v>61071000</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1955,7 +1982,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5">
         <f>G11+E53-F53</f>
-        <v>3340000</v>
+        <v>5640000</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="3"/>
